--- a/DB/role_object.xlsx
+++ b/DB/role_object.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoanpd1.HOANPD1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source Code\Caka-ICT\Java\Caka-ICT_Java_Library\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="975" yWindow="0" windowWidth="15240" windowHeight="7200"/>
+    <workbookView xWindow="1905" yWindow="0" windowWidth="15240" windowHeight="7200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="role_object" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>role_id</t>
   </si>
@@ -38,29 +38,70 @@
   <si>
     <t>is_active</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Decimals</t>
+  </si>
+  <si>
+    <t>Not null</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -68,12 +109,162 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,17 +547,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -380,7 +573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>61</v>
       </c>
@@ -391,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>61</v>
       </c>
@@ -402,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>61</v>
       </c>
@@ -413,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>61</v>
       </c>
@@ -424,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>61</v>
       </c>
@@ -435,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>61</v>
       </c>
@@ -446,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>61</v>
       </c>
@@ -457,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>61</v>
       </c>
@@ -468,7 +661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>61</v>
       </c>
@@ -479,7 +672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>61</v>
       </c>
@@ -490,7 +683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>61</v>
       </c>
@@ -501,7 +694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>61</v>
       </c>
@@ -512,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>61</v>
       </c>
@@ -523,7 +716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>61</v>
       </c>
@@ -534,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>61</v>
       </c>
@@ -545,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>61</v>
       </c>
@@ -556,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>61</v>
       </c>
@@ -567,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>61</v>
       </c>
@@ -578,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>61</v>
       </c>
@@ -589,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>61</v>
       </c>
@@ -600,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>61</v>
       </c>
@@ -611,7 +804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>61</v>
       </c>
@@ -622,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>61</v>
       </c>
@@ -633,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>61</v>
       </c>
@@ -644,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>61</v>
       </c>
@@ -655,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>61</v>
       </c>
@@ -666,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>61</v>
       </c>
@@ -677,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>61</v>
       </c>
@@ -688,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>61</v>
       </c>
@@ -699,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>62</v>
       </c>
@@ -710,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>62</v>
       </c>
@@ -721,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>62</v>
       </c>
@@ -732,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>62</v>
       </c>
@@ -743,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>62</v>
       </c>
@@ -754,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>62</v>
       </c>
@@ -765,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>62</v>
       </c>
@@ -776,7 +969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>62</v>
       </c>
@@ -787,7 +980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>62</v>
       </c>
@@ -798,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>62</v>
       </c>
@@ -809,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>62</v>
       </c>
@@ -820,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>62</v>
       </c>
@@ -831,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>62</v>
       </c>
@@ -842,7 +1035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>62</v>
       </c>
@@ -853,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>62</v>
       </c>
@@ -864,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>62</v>
       </c>
@@ -875,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>62</v>
       </c>
@@ -886,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>62</v>
       </c>
@@ -897,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>62</v>
       </c>
@@ -908,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>62</v>
       </c>
@@ -919,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>62</v>
       </c>
@@ -930,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>62</v>
       </c>
@@ -941,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>62</v>
       </c>
@@ -952,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>62</v>
       </c>
@@ -963,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>63</v>
       </c>
@@ -974,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>102</v>
       </c>
@@ -985,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>102</v>
       </c>
@@ -996,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>102</v>
       </c>
@@ -1007,7 +1200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>102</v>
       </c>
@@ -1018,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>102</v>
       </c>
@@ -1029,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>102</v>
       </c>
@@ -1040,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>102</v>
       </c>
@@ -1051,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>102</v>
       </c>
@@ -1062,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>102</v>
       </c>
@@ -1073,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>102</v>
       </c>
@@ -1084,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>102</v>
       </c>
@@ -1095,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>102</v>
       </c>
@@ -1106,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>102</v>
       </c>
@@ -1117,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>102</v>
       </c>
@@ -1128,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>102</v>
       </c>
@@ -1139,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>102</v>
       </c>
@@ -1150,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>102</v>
       </c>
@@ -1161,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>102</v>
       </c>
@@ -1172,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>102</v>
       </c>
@@ -1183,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>102</v>
       </c>
@@ -1194,7 +1387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>102</v>
       </c>
@@ -1205,7 +1398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>102</v>
       </c>
@@ -1216,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>102</v>
       </c>
@@ -1227,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>102</v>
       </c>
@@ -1238,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>104</v>
       </c>
@@ -1249,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>105</v>
       </c>
@@ -1260,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>105</v>
       </c>
@@ -1271,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>105</v>
       </c>
@@ -1282,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>105</v>
       </c>
@@ -1293,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>105</v>
       </c>
@@ -1304,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>105</v>
       </c>
@@ -1315,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>105</v>
       </c>
@@ -1326,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>105</v>
       </c>
@@ -1337,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>105</v>
       </c>
@@ -1348,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>106</v>
       </c>
@@ -1359,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>106</v>
       </c>
@@ -1370,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>106</v>
       </c>
@@ -1381,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>106</v>
       </c>
@@ -1392,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>106</v>
       </c>
@@ -1403,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>106</v>
       </c>
@@ -1414,7 +1607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>106</v>
       </c>
@@ -1425,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>106</v>
       </c>
@@ -1436,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>106</v>
       </c>
@@ -1447,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>106</v>
       </c>
@@ -1458,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>106</v>
       </c>
@@ -1469,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>106</v>
       </c>
@@ -1480,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>106</v>
       </c>
@@ -1491,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>106</v>
       </c>
@@ -1502,7 +1695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>106</v>
       </c>
@@ -1513,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>106</v>
       </c>
@@ -1524,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>106</v>
       </c>
@@ -1535,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -1546,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -1557,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>106</v>
       </c>
@@ -1568,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>106</v>
       </c>
@@ -1579,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>106</v>
       </c>
@@ -1590,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>106</v>
       </c>
@@ -1601,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>106</v>
       </c>
@@ -1612,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>106</v>
       </c>
@@ -1623,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>106</v>
       </c>
@@ -1634,7 +1827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>106</v>
       </c>
@@ -1645,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>107</v>
       </c>
@@ -1656,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>107</v>
       </c>
@@ -1667,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>107</v>
       </c>
@@ -1678,7 +1871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>107</v>
       </c>
@@ -1689,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>107</v>
       </c>
@@ -1700,7 +1893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>107</v>
       </c>
@@ -1711,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>107</v>
       </c>
@@ -1722,7 +1915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>107</v>
       </c>
@@ -1733,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>107</v>
       </c>
@@ -1744,7 +1937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>107</v>
       </c>
@@ -1755,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>107</v>
       </c>
@@ -1766,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>107</v>
       </c>
@@ -1777,7 +1970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>107</v>
       </c>
@@ -1788,7 +1981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>107</v>
       </c>
@@ -1799,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>107</v>
       </c>
@@ -1810,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>107</v>
       </c>
@@ -1821,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>107</v>
       </c>
@@ -1832,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>107</v>
       </c>
@@ -1843,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>107</v>
       </c>
@@ -1861,12 +2054,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>